--- a/(FS) Process Energy Consumption.xlsx
+++ b/(FS) Process Energy Consumption.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingweichen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingweichen/Documents/Academic/1 Academic/1 Research/PPI LCA/Data for Submission/actual submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4562C-C19D-3748-865C-6751EBC1DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D3045-6A1C-FF40-B778-CAAFBE307B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="2220" windowWidth="32000" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculation Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Consumption" sheetId="2" r:id="rId2"/>
+    <sheet name="Emission" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Calculation Sheet'!$A$2:$D$79</definedName>
-    <definedName name="table" localSheetId="1">'Calculation Sheet'!$A$2:$D$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consumption!$A$2:$G$79</definedName>
+    <definedName name="table" localSheetId="1">Consumption!$A$2:$D$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,30 +53,8 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="41">
   <si>
     <t>Woodyard</t>
   </si>
@@ -180,6 +159,24 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Internal Biofuel</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>Class 2</t>
+  </si>
+  <si>
+    <t>Consumption Percentage</t>
+  </si>
+  <si>
+    <t>Emissions (ST CO2 eq.)</t>
+  </si>
+  <si>
+    <t>Emission Intensity (ST CO2 eq./FST)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +312,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -363,6 +360,10 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -384,68 +385,6 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="table" connectionId="1" xr16:uid="{702045CC-EA55-D444-A473-E13ED19F5FCD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>N/A</v>
-    <v>2</v>
-    <v>5</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="argument" t="s"/>
-    <k n="errorType" t="i"/>
-    <k n="ptg" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1135,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView zoomScale="193" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1193,7 @@
       </c>
       <c r="E3" s="14">
         <f>SUM(D3:D9)</f>
-        <v>0.75600000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
@@ -1265,25 +1204,28 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13">
+        <f>SUM(D4:D10)</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="F4" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" ref="G4:G9" si="0">F4*D4/0.756</f>
-        <v>2.404761904761905E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="e">
+        <f>F4*D4/0.899</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1291,43 +1233,49 @@
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="16">
+        <f>SUM(D5:D11)</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G5" s="18" t="e">
+        <f>F5*D5/0.837</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E6" s="15"/>
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13">
+        <f>SUM(D6:D12)</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" s="18" t="e">
+        <f>F6*D6/0.036</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1335,73 +1283,82 @@
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="16">
+        <f>SUM(D7:D13)</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G7" s="18" t="e">
+        <f>F7*D7/2.144</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="15"/>
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <f>SUM(D8:D14)</f>
+        <v>5.9000000000000004E-2</v>
+      </c>
       <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="0"/>
+        <f>F8*D8/0.743</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="E9" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16">
+        <f>SUM(D9:D15)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="F9" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3267724867724868E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="e">
+        <f>F9*D9/0.009</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1411,97 +1368,110 @@
       </c>
       <c r="E10" s="13">
         <f>SUM(D10:D16)</f>
-        <v>0.89900000000000002</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="18" t="e" vm="1">
-        <f>F10*D10/0.899</f>
+      <c r="G10" s="18" t="e">
+        <f>F10*D10/0.898</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="16">
+        <f>SUM(D11:D17)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F11" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G11" s="18" t="e" vm="1">
-        <f t="shared" ref="G11:G16" si="1">F11*D11/0.899</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="e">
+        <f>F11*D11/-0.624</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
+      <c r="E12" s="13">
+        <f>SUM(D12:D18)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="F12" s="11">
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="e" vm="1">
-        <f t="shared" si="1"/>
+      <c r="G12" s="18" t="e">
+        <f>F12*D12/-0.065</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="16">
+        <f>SUM(D13:D19)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="18" t="e" vm="1">
-        <f t="shared" si="1"/>
+      <c r="G13" s="18" t="e">
+        <f>F13*D13/-0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>0.498</v>
-      </c>
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="11">
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" si="1"/>
+        <f>F14*D14/0.756</f>
         <v>0</v>
       </c>
     </row>
@@ -1521,54 +1491,51 @@
       <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="G15" s="18" t="e" vm="1">
-        <f t="shared" si="1"/>
+      <c r="G15" s="18" t="e">
+        <f>F15*D15/0.899</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>0.40100000000000002</v>
-      </c>
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="16"/>
       <c r="F16" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="1"/>
-        <v>1.6414682981090101E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="e">
+        <f>F16*D16/0.837</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="16">
-        <f>SUM(D17:D23)</f>
-        <v>0.83700000000000008</v>
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="e" vm="1">
-        <f>F17*D17/0.837</f>
+      <c r="G17" s="18" t="e">
+        <f>F17*D17/0.036</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1577,54 +1544,53 @@
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G18" s="18" t="e" vm="1">
-        <f t="shared" ref="G18:G23" si="2">F18*D18/0.837</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="e">
+        <f>F18*D18/2.144</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="16"/>
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="18" t="e" vm="1">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="G19" s="18">
+        <f>F19*D19/0.743</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>27</v>
@@ -1633,39 +1599,38 @@
       <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="18" t="e" vm="1">
-        <f t="shared" si="2"/>
+      <c r="G20" s="18" t="e">
+        <f>F20*D20/0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="12">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E21" s="16"/>
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>-1.9419999999999999</v>
+      </c>
       <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="2"/>
+        <f>F21*D21/0.898</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>5</v>
@@ -1677,77 +1642,74 @@
       <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="18" t="e" vm="1">
-        <f t="shared" si="2"/>
+      <c r="G22" s="18" t="e">
+        <f>F22*D22/-0.624</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="E23" s="16"/>
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="2"/>
-        <v>3.4645639187574677E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="18" t="e">
+        <f>F23*D23/-0.065</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="13">
-        <f>SUM(D24:D30)</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
+      <c r="A24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="16"/>
       <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="18" t="e" vm="1">
-        <f>F24*D24/0.036</f>
+      <c r="G24" s="18" t="e">
+        <f>F24*D24/-0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G25" s="18" t="e" vm="1">
-        <f t="shared" ref="G25:G30" si="3">F25*D25/0.036</f>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <f>F25*D25/0.756</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1755,41 +1717,42 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.498</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="18" t="e" vm="1">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="G26" s="18">
+        <f>F26*D26/0.899</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="11">
         <v>0</v>
       </c>
-      <c r="G27" s="18" t="e" vm="1">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="G27" s="18">
+        <f>F27*D27/0.837</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1809,108 +1772,105 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="3"/>
+        <f>F28*D28/0.036</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16"/>
       <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G29" s="18" t="e" vm="1">
-        <f t="shared" si="3"/>
+      <c r="G29" s="18" t="e">
+        <f>F29*D29/2.144</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2E-3</v>
       </c>
       <c r="F30" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G30" s="18" t="e" vm="1">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <f>F30*D30/0.743</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="16">
-        <f>SUM(D31:D37)</f>
-        <v>2.1440000000000001</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D31" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E31" s="16"/>
       <c r="F31" s="11">
         <v>0</v>
       </c>
-      <c r="G31" s="18" t="e" vm="1">
-        <f>F31*D31/2.144</f>
-        <v>#VALUE!</v>
+      <c r="G31" s="18">
+        <f>F31*D31/0.009</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="E32" s="16"/>
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
       <c r="F32" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" ref="G32:G37" si="4">F32*D32/2.144</f>
-        <v>9.6128731343283584E-3</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="18" t="e">
+        <f>F32*D32/0.898</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>27</v>
@@ -1919,39 +1879,38 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="18" t="e" vm="1">
-        <f t="shared" si="4"/>
+      <c r="G33" s="18" t="e">
+        <f>F33*D33/-0.624</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="12">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E34" s="16"/>
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="G34" s="18" t="e">
+        <f>F34*D34/-0.065</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>4</v>
@@ -1963,8 +1922,8 @@
       <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="18" t="e" vm="1">
-        <f t="shared" si="4"/>
+      <c r="G35" s="18" t="e">
+        <f>F35*D35/-0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1973,110 +1932,107 @@
         <v>12</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E36" s="15"/>
       <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18" t="e" vm="1">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>0.09</v>
+      </c>
+      <c r="G36" s="18">
+        <f>F36*D36/0.756</f>
+        <v>2.404761904761905E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1.819</v>
-      </c>
-      <c r="E37" s="16"/>
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
       <c r="F37" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G37" s="18">
-        <f t="shared" si="4"/>
-        <v>3.1221641791044769E-2</v>
+        <v>0.09</v>
+      </c>
+      <c r="G37" s="18" t="e">
+        <f>F37*D37/0.899</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E38" s="13">
-        <f>SUM(D38:D44)</f>
-        <v>0.74299999999999999</v>
-      </c>
+      <c r="A38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="18">
-        <f>F38*D38/0.743</f>
-        <v>0</v>
+        <v>0.09</v>
+      </c>
+      <c r="G38" s="18" t="e">
+        <f>F38*D38/0.837</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>0.19800000000000001</v>
+      <c r="D39" t="s">
+        <v>27</v>
       </c>
       <c r="F39" s="11">
         <v>0.09</v>
       </c>
-      <c r="G39" s="18">
-        <f t="shared" ref="G39:G44" si="5">F39*D39/0.743</f>
-        <v>2.3983849259757738E-2</v>
+      <c r="G39" s="18" t="e">
+        <f>F39*D39/0.036</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>6.0000000000000001E-3</v>
-      </c>
+      <c r="A40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F40*D40/2.144</f>
+        <v>9.6128731343283584E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2087,38 +2043,39 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>5.1999999999999998E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F41" s="11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G41" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F41*D41/0.743</f>
+        <v>2.3983849259757738E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>2E-3</v>
-      </c>
+      <c r="A42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.09</v>
+      </c>
+      <c r="G42" s="18" t="e">
+        <f>F42*D42/0.009</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2126,66 +2083,63 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>5.0000000000000001E-3</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="F43" s="11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G43" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F43*D43/0.898</f>
+        <v>7.2360801781737191E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>0.42399999999999999</v>
-      </c>
+      <c r="A44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>-0.624</v>
+      </c>
+      <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <v>3.6799999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G44" s="18">
-        <f t="shared" si="5"/>
-        <v>2.1000269179004036E-2</v>
+        <f>F44*D44/-0.624</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="16">
-        <f>SUM(D45:D51)</f>
-        <v>8.9999999999999993E-3</v>
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="18" t="e" vm="1">
-        <f>F45*D45/0.009</f>
-        <v>#VALUE!</v>
+        <v>0.09</v>
+      </c>
+      <c r="G45" s="18">
+        <f>F45*D45/-0.065</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,131 +2147,129 @@
         <v>28</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>27</v>
+      <c r="D46" s="12">
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="11">
         <v>0.09</v>
       </c>
-      <c r="G46" s="18" t="e" vm="1">
-        <f t="shared" ref="G46:G51" si="6">F46*D46/0.009</f>
-        <v>#VALUE!</v>
+      <c r="G46" s="18">
+        <f>F46*D46/-0.009</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E47" s="15"/>
       <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18" t="e" vm="1">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G47" s="18">
+        <f>F47*D47/0.756</f>
+        <v>2.3267724867724868E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="16"/>
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>0.40100000000000002</v>
+      </c>
       <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18" t="e" vm="1">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G48" s="18">
+        <f>F48*D48/0.899</f>
+        <v>1.6414682981090101E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" s="12">
-        <v>8.9999999999999993E-3</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="11">
-        <v>0</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>F49*D49/0.837</f>
+        <v>3.4645639187574677E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="16"/>
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
       <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18" t="e" vm="1">
-        <f t="shared" si="6"/>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G50" s="18" t="e">
+        <f>F50*D50/0.036</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>27</v>
+      <c r="D51" s="12">
+        <v>1.819</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="11">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="G51" s="18" t="e" vm="1">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="G51" s="18">
+        <f>F51*D51/2.144</f>
+        <v>3.1221641791044769E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,45 +2277,42 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="13">
-        <f>SUM(D52:D58)</f>
-        <v>0.89799999999999991</v>
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>0.42399999999999999</v>
       </c>
       <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="18" t="e" vm="1">
-        <f>F52*D52/0.898</f>
-        <v>#VALUE!</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G52" s="18">
+        <f>F52*D52/0.743</f>
+        <v>2.1000269179004036E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0.72199999999999998</v>
-      </c>
+      <c r="A53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="16"/>
       <c r="F53" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G53" s="18">
-        <f t="shared" ref="G53:G58" si="7">F53*D53/0.898</f>
-        <v>7.2360801781737191E-2</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G53" s="18" t="e">
+        <f>F53*D53/0.009</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2374,38 +2323,39 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1.9079999999999999</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18" t="e" vm="1">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G54" s="18">
+        <f>F54*D54/0.898</f>
+        <v>7.8189755011135856E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>0.21</v>
-      </c>
+      <c r="A55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="16"/>
       <c r="F55" s="11">
-        <v>0</v>
-      </c>
-      <c r="G55" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G55" s="18" t="e">
+        <f>F55*D55/-0.624</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,142 +2363,139 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="18" t="e" vm="1">
-        <f t="shared" si="7"/>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G56" s="18" t="e">
+        <f>F56*D56/-0.065</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>-1.9419999999999999</v>
-      </c>
+      <c r="A57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="16"/>
       <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="G57" s="18" t="e">
+        <f>F57*D57/-0.009</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>1.9079999999999999</v>
-      </c>
+      <c r="A58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E58" s="15"/>
       <c r="F58" s="11">
-        <v>3.6799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="18">
-        <f t="shared" si="7"/>
-        <v>7.8189755011135856E-2</v>
+        <f>F58*D58/0.756</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="16">
-        <f>SUM(D59:D65)</f>
-        <v>-0.624</v>
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
       </c>
       <c r="F59" s="11">
         <v>0</v>
       </c>
-      <c r="G59" s="18" t="e" vm="1">
-        <f>F59*D59/-0.624</f>
+      <c r="G59" s="18" t="e">
+        <f>F59*D59/0.899</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="12">
-        <v>-0.624</v>
+        <v>2</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G60" s="18">
-        <f t="shared" ref="G60:G65" si="8">F60*D60/-0.624</f>
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="18" t="e">
+        <f>F60*D60/0.837</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="16"/>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
       <c r="F61" s="11">
         <v>0</v>
       </c>
-      <c r="G61" s="18" t="e" vm="1">
-        <f t="shared" si="8"/>
+      <c r="G61" s="18" t="e">
+        <f>F61*D61/0.036</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>27</v>
@@ -2557,31 +2504,30 @@
       <c r="F62" s="11">
         <v>0</v>
       </c>
-      <c r="G62" s="18" t="e" vm="1">
-        <f t="shared" si="8"/>
+      <c r="G62" s="18" t="e">
+        <f>F62*D62/2.144</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="16"/>
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="F63" s="11">
         <v>0</v>
       </c>
-      <c r="G63" s="18" t="e" vm="1">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+      <c r="G63" s="18">
+        <f>F63*D63/0.743</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,10 +2535,10 @@
         <v>28</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>27</v>
@@ -2601,55 +2547,51 @@
       <c r="F64" s="11">
         <v>0</v>
       </c>
-      <c r="G64" s="18" t="e" vm="1">
-        <f t="shared" si="8"/>
+      <c r="G64" s="18" t="e">
+        <f>F64*D64/0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="18" t="e">
+        <f>F65*D65/0.898</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G65" s="18" t="e" vm="1">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="13">
-        <f>SUM(D66:D72)</f>
-        <v>-6.5000000000000002E-2</v>
-      </c>
+      <c r="C66" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="16"/>
       <c r="F66" s="11">
         <v>0</v>
       </c>
-      <c r="G66" s="18" t="e" vm="1">
-        <f>F66*D66/-0.065</f>
+      <c r="G66" s="18" t="e">
+        <f>F66*D66/-0.624</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2661,70 +2603,72 @@
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>-6.5000000000000002E-2</v>
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
       </c>
       <c r="F67" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="G67" s="18">
-        <f t="shared" ref="G67:G72" si="9">F67*D67/-0.065</f>
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="G67" s="18" t="e">
+        <f>F67*D67/-0.065</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="A68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>27</v>
-      </c>
+      <c r="D68" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="16"/>
       <c r="F68" s="11">
         <v>0</v>
       </c>
-      <c r="G68" s="18" t="e" vm="1">
-        <f t="shared" si="9"/>
+      <c r="G68" s="18" t="e">
+        <f>F68*D68/-0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="A69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>27</v>
-      </c>
+      <c r="D69" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E69" s="15"/>
       <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="18" t="e" vm="1">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+      <c r="G69" s="18">
+        <f>F69*D69/0.756</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
@@ -2732,98 +2676,95 @@
       <c r="F70" s="11">
         <v>0</v>
       </c>
-      <c r="G70" s="18" t="e" vm="1">
-        <f t="shared" si="9"/>
+      <c r="G70" s="18" t="e">
+        <f>F70*D70/0.899</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
+      <c r="A71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="16"/>
       <c r="F71" s="11">
         <v>0</v>
       </c>
-      <c r="G71" s="18" t="e" vm="1">
-        <f t="shared" si="9"/>
+      <c r="G71" s="18" t="e">
+        <f>F71*D71/0.837</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G72" s="18" t="e" vm="1">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="18" t="e">
+        <f>F72*D72/0.036</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="16">
-        <f>SUM(D73:D79)</f>
-        <v>-8.9999999999999993E-3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D73" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E73" s="16"/>
       <c r="F73" s="11">
         <v>0</v>
       </c>
-      <c r="G73" s="18" t="e" vm="1">
-        <f>F73*D73/-0.009</f>
-        <v>#VALUE!</v>
+      <c r="G73" s="18">
+        <f>F73*D73/2.144</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="12">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E74" s="16"/>
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="F74" s="11">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G74" s="18">
-        <f t="shared" ref="G74:G79" si="10">F74*D74/-0.009</f>
-        <v>0.09</v>
+        <f>F74*D74/0.743</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2831,10 +2772,10 @@
         <v>28</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>27</v>
@@ -2843,31 +2784,30 @@
       <c r="F75" s="11">
         <v>0</v>
       </c>
-      <c r="G75" s="18" t="e" vm="1">
-        <f t="shared" si="10"/>
+      <c r="G75" s="18" t="e">
+        <f>F75*D75/0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="12" t="s">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="16"/>
+      <c r="D76">
+        <v>0.21</v>
+      </c>
       <c r="F76" s="11">
         <v>0</v>
       </c>
-      <c r="G76" s="18" t="e" vm="1">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+      <c r="G76" s="18">
+        <f>F76*D76/0.898</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,10 +2815,10 @@
         <v>28</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>27</v>
@@ -2887,30 +2827,29 @@
       <c r="F77" s="11">
         <v>0</v>
       </c>
-      <c r="G77" s="18" t="e" vm="1">
-        <f t="shared" si="10"/>
+      <c r="G77" s="18" t="e">
+        <f>F77*D77/-0.624</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="16"/>
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
       <c r="F78" s="11">
         <v>0</v>
       </c>
-      <c r="G78" s="18" t="e" vm="1">
-        <f t="shared" si="10"/>
+      <c r="G78" s="18" t="e">
+        <f>F78*D78/-0.065</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2922,24 +2861,684 @@
         <v>18</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="11">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="G79" s="18" t="e" vm="1">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="18" t="e">
+        <f>F79*D79/-0.009</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G79" xr:uid="{66840815-DD21-C64A-92AF-201EB770E86F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G79">
+      <sortCondition descending="1" ref="C2:C79"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B79CB7-A841-4349-9EDB-50210D2665D0}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <f>0.035/0.756</f>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="F2">
+        <f>E2*D2</f>
+        <v>2.8240740740740743E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <f>0.056/0.743</f>
+        <v>7.5370121130551818E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F29" si="0">E3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E4" s="11">
+        <f>0.202/0.756</f>
+        <v>0.26719576719576721</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.6298941798941799E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0.2505</v>
+      </c>
+      <c r="E5" s="11">
+        <f>0.229/2.144</f>
+        <v>0.10680970149253731</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.6755830223880596E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f>0.198/0.743</f>
+        <v>0.26648721399730824</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f>0.722/897</f>
+        <v>8.0490523968784831E-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9.4399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <f>0.004/0.756</f>
+        <v>5.2910052910052907E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.2275132275132271E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f>0.006/0.743</f>
+        <v>8.0753701211305519E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <f>0.033/0.756</f>
+        <v>4.3650793650793655E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.662698412698413E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0.2505</v>
+      </c>
+      <c r="E13" s="11">
+        <f>0.096/2.144</f>
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.121641791044776E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f>0.052/0.743</f>
+        <v>6.9986541049798109E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f>0.21/0.897</f>
+        <v>0.23411371237458192</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E16" s="11">
+        <f>0.01/0.756</f>
+        <v>1.3227513227513229E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>8.0687830687830697E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="E17" s="11">
+        <f>0.498/0.899</f>
+        <v>0.55394883203559508</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.35247764182424912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="E18" s="11">
+        <f>0.049/0.837</f>
+        <v>5.8542413381123065E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7.6163679808841107E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>0.002/0.743</f>
+        <v>2.6917900403768506E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E21" s="11">
+        <f>0.003/0.756</f>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2.4206349206349205E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f>0.005/0.743</f>
+        <v>6.7294751009421266E-3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E24" s="11">
+        <f>0.478/0.756</f>
+        <v>0.63227513227513221</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3.8568783068783065E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0.2505</v>
+      </c>
+      <c r="E25" s="11">
+        <f>1.819/2.144</f>
+        <v>0.84841417910447758</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.21252775186567163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="E26" s="11">
+        <f>0.401/0.899</f>
+        <v>0.44605116796440492</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.28382235817575086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="E27" s="11">
+        <f>0.788/0.837</f>
+        <v>0.94145758661887702</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.1224836320191159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>0.424/0.743</f>
+        <v>0.57065948855989235</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>1.908/0.897</f>
+        <v>2.1270903010033444</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>